--- a/web_app/data/dataset_1.xlsx
+++ b/web_app/data/dataset_1.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gr4vi\Documents\GitHub\ProjectMayhem\web_app\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF32686A-1CF3-4CB2-85BF-01C106DFBF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Сделай таблицу, которая содержи" sheetId="1" r:id="rId4"/>
+    <sheet name="Сделай таблицу, которая содержи" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="199">
   <si>
     <t>Дата</t>
   </si>
@@ -602,24 +616,31 @@
   </si>
   <si>
     <t>Некрасова</t>
+  </si>
+  <si>
+    <t>Валюта</t>
+  </si>
+  <si>
+    <t>RUB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
-    <numFmt numFmtId="165" formatCode="d.m.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -630,42 +651,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -855,20 +879,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,10 +913,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45931.0</v>
+        <v>45931</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -899,12 +931,15 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>4500.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4500</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45932.0</v>
+        <v>45932</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -916,12 +951,15 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3200</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45933.0</v>
+        <v>45933</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -933,12 +971,15 @@
         <v>13</v>
       </c>
       <c r="E4" s="1">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45934.0</v>
+        <v>45934</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -950,12 +991,15 @@
         <v>16</v>
       </c>
       <c r="E5" s="1">
-        <v>5600.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5600</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45935.0</v>
+        <v>45935</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -967,12 +1011,15 @@
         <v>19</v>
       </c>
       <c r="E6" s="1">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45936.0</v>
+        <v>45936</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -984,12 +1031,15 @@
         <v>22</v>
       </c>
       <c r="E7" s="1">
-        <v>3400.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3400</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45937.0</v>
+        <v>45937</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -1001,12 +1051,15 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>890.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>890</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45938.0</v>
+        <v>45938</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -1018,12 +1071,15 @@
         <v>28</v>
       </c>
       <c r="E9" s="1">
-        <v>4300.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4300</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45939.0</v>
+        <v>45939</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -1035,12 +1091,15 @@
         <v>31</v>
       </c>
       <c r="E10" s="1">
-        <v>2750.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2750</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45940.0</v>
+        <v>45940</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
@@ -1052,12 +1111,15 @@
         <v>34</v>
       </c>
       <c r="E11" s="1">
-        <v>6100.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>6100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45941.0</v>
+        <v>45941</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -1069,12 +1131,15 @@
         <v>37</v>
       </c>
       <c r="E12" s="1">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45942.0</v>
+        <v>45942</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
@@ -1086,12 +1151,15 @@
         <v>40</v>
       </c>
       <c r="E13" s="1">
-        <v>3900.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>3900</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45943.0</v>
+        <v>45943</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>41</v>
@@ -1103,12 +1171,15 @@
         <v>43</v>
       </c>
       <c r="E14" s="1">
-        <v>2200.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45944.0</v>
+        <v>45944</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>44</v>
@@ -1120,12 +1191,15 @@
         <v>46</v>
       </c>
       <c r="E15" s="1">
-        <v>4800.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4800</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45945.0</v>
+        <v>45945</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -1137,12 +1211,15 @@
         <v>49</v>
       </c>
       <c r="E16" s="1">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1350</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45946.0</v>
+        <v>45946</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
@@ -1154,12 +1231,15 @@
         <v>52</v>
       </c>
       <c r="E17" s="1">
-        <v>5200.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45947.0</v>
+        <v>45947</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>53</v>
@@ -1171,12 +1251,15 @@
         <v>55</v>
       </c>
       <c r="E18" s="1">
-        <v>980.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>980</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45948.0</v>
+        <v>45948</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
@@ -1188,12 +1271,15 @@
         <v>58</v>
       </c>
       <c r="E19" s="1">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>3100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45949.0</v>
+        <v>45949</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>59</v>
@@ -1205,12 +1291,15 @@
         <v>61</v>
       </c>
       <c r="E20" s="1">
-        <v>4400.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>4400</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45950.0</v>
+        <v>45950</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>62</v>
@@ -1222,12 +1311,15 @@
         <v>64</v>
       </c>
       <c r="E21" s="1">
-        <v>2600.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2600</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45951.0</v>
+        <v>45951</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1239,12 +1331,15 @@
         <v>66</v>
       </c>
       <c r="E22" s="1">
-        <v>7200.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>7200</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45952.0</v>
+        <v>45952</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -1256,12 +1351,15 @@
         <v>68</v>
       </c>
       <c r="E23" s="1">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1850</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45953.0</v>
+        <v>45953</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
@@ -1273,12 +1371,15 @@
         <v>70</v>
       </c>
       <c r="E24" s="1">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45954.0</v>
+        <v>45954</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -1290,12 +1391,15 @@
         <v>72</v>
       </c>
       <c r="E25" s="1">
-        <v>5900.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>5900</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45955.0</v>
+        <v>45955</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
@@ -1307,12 +1411,15 @@
         <v>31</v>
       </c>
       <c r="E26" s="1">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45956.0</v>
+        <v>45956</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
@@ -1324,12 +1431,15 @@
         <v>75</v>
       </c>
       <c r="E27" s="1">
-        <v>4700.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>4700</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45957.0</v>
+        <v>45957</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -1341,12 +1451,15 @@
         <v>77</v>
       </c>
       <c r="E28" s="1">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2300</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45958.0</v>
+        <v>45958</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
@@ -1358,12 +1471,15 @@
         <v>16</v>
       </c>
       <c r="E29" s="1">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3600</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45959.0</v>
+        <v>45959</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -1375,12 +1491,15 @@
         <v>80</v>
       </c>
       <c r="E30" s="1">
-        <v>1450.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1450</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45960.0</v>
+        <v>45960</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
@@ -1392,12 +1511,15 @@
         <v>68</v>
       </c>
       <c r="E31" s="1">
-        <v>5100.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>5100</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45961.0</v>
+        <v>45961</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
@@ -1409,12 +1531,15 @@
         <v>83</v>
       </c>
       <c r="E32" s="1">
-        <v>8200.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>8200</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45962.0</v>
+        <v>45962</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
@@ -1426,12 +1551,15 @@
         <v>85</v>
       </c>
       <c r="E33" s="1">
-        <v>2400.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45963.0</v>
+        <v>45963</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
@@ -1443,12 +1571,15 @@
         <v>87</v>
       </c>
       <c r="E34" s="1">
-        <v>3700.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>3700</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45964.0</v>
+        <v>45964</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
@@ -1460,12 +1591,15 @@
         <v>89</v>
       </c>
       <c r="E35" s="1">
-        <v>1250.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1250</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45965.0</v>
+        <v>45965</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>47</v>
@@ -1477,12 +1611,15 @@
         <v>91</v>
       </c>
       <c r="E36" s="1">
-        <v>4600.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>4600</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45966.0</v>
+        <v>45966</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
@@ -1494,12 +1631,15 @@
         <v>93</v>
       </c>
       <c r="E37" s="1">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2900</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45967.0</v>
+        <v>45967</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>53</v>
@@ -1511,12 +1651,15 @@
         <v>95</v>
       </c>
       <c r="E38" s="1">
-        <v>5400.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>5400</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45968.0</v>
+        <v>45968</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>56</v>
@@ -1528,12 +1671,15 @@
         <v>97</v>
       </c>
       <c r="E39" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1800</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45969.0</v>
+        <v>45969</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>59</v>
@@ -1545,12 +1691,15 @@
         <v>99</v>
       </c>
       <c r="E40" s="1">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>3300</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45970.0</v>
+        <v>45970</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>62</v>
@@ -1562,12 +1711,15 @@
         <v>101</v>
       </c>
       <c r="E41" s="1">
-        <v>6700.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>6700</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45971.0</v>
+        <v>45971</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
@@ -1579,12 +1731,15 @@
         <v>103</v>
       </c>
       <c r="E42" s="1">
-        <v>4100.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>4100</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45972.0</v>
+        <v>45972</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
@@ -1596,12 +1751,15 @@
         <v>105</v>
       </c>
       <c r="E43" s="1">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2500</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45973.0</v>
+        <v>45973</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -1613,12 +1771,15 @@
         <v>107</v>
       </c>
       <c r="E44" s="1">
-        <v>3800.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>3800</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45974.0</v>
+        <v>45974</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>14</v>
@@ -1630,12 +1791,15 @@
         <v>109</v>
       </c>
       <c r="E45" s="1">
-        <v>7300.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>7300</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45975.0</v>
+        <v>45975</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>17</v>
@@ -1647,12 +1811,15 @@
         <v>111</v>
       </c>
       <c r="E46" s="1">
-        <v>1600.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1600</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>45976.0</v>
+        <v>45976</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>20</v>
@@ -1664,12 +1831,15 @@
         <v>113</v>
       </c>
       <c r="E47" s="1">
-        <v>4900.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>4900</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45977.0</v>
+        <v>45977</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>23</v>
@@ -1681,12 +1851,15 @@
         <v>115</v>
       </c>
       <c r="E48" s="1">
-        <v>2200.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>45978.0</v>
+        <v>45978</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>26</v>
@@ -1698,12 +1871,15 @@
         <v>117</v>
       </c>
       <c r="E49" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>3500</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>45979.0</v>
+        <v>45979</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>29</v>
@@ -1715,12 +1891,15 @@
         <v>119</v>
       </c>
       <c r="E50" s="1">
-        <v>1150.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1150</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45980.0</v>
+        <v>45980</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>32</v>
@@ -1732,12 +1911,15 @@
         <v>121</v>
       </c>
       <c r="E51" s="1">
-        <v>5800.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>5800</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>45981.0</v>
+        <v>45981</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>35</v>
@@ -1749,12 +1931,15 @@
         <v>123</v>
       </c>
       <c r="E52" s="1">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>45982.0</v>
+        <v>45982</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>38</v>
@@ -1766,12 +1951,15 @@
         <v>125</v>
       </c>
       <c r="E53" s="1">
-        <v>4400.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>4400</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>45983.0</v>
+        <v>45983</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>41</v>
@@ -1783,12 +1971,15 @@
         <v>127</v>
       </c>
       <c r="E54" s="1">
-        <v>2700.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>2700</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>45984.0</v>
+        <v>45984</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>44</v>
@@ -1800,12 +1991,15 @@
         <v>129</v>
       </c>
       <c r="E55" s="1">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>5300</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>47</v>
@@ -1817,12 +2011,15 @@
         <v>131</v>
       </c>
       <c r="E56" s="1">
-        <v>1950.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1950</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
@@ -1834,12 +2031,15 @@
         <v>133</v>
       </c>
       <c r="E57" s="1">
-        <v>4200.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>4200</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>53</v>
@@ -1851,12 +2051,15 @@
         <v>135</v>
       </c>
       <c r="E58" s="1">
-        <v>6400.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>6400</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>56</v>
@@ -1868,12 +2071,15 @@
         <v>137</v>
       </c>
       <c r="E59" s="1">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
@@ -1885,12 +2091,15 @@
         <v>139</v>
       </c>
       <c r="E60" s="1">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>3600</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>62</v>
@@ -1902,12 +2111,15 @@
         <v>141</v>
       </c>
       <c r="E61" s="1">
-        <v>7900.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>7900</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>5</v>
@@ -1919,12 +2131,15 @@
         <v>143</v>
       </c>
       <c r="E62" s="1">
-        <v>4700.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>4700</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
@@ -1936,12 +2151,15 @@
         <v>145</v>
       </c>
       <c r="E63" s="1">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2800</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
@@ -1953,12 +2171,15 @@
         <v>147</v>
       </c>
       <c r="E64" s="1">
-        <v>4000.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>4000</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45994.0</v>
+        <v>45994</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>14</v>
@@ -1970,12 +2191,15 @@
         <v>149</v>
       </c>
       <c r="E65" s="1">
-        <v>8500.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>8500</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45995.0</v>
+        <v>45995</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>17</v>
@@ -1987,12 +2211,15 @@
         <v>151</v>
       </c>
       <c r="E66" s="1">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45996.0</v>
+        <v>45996</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>20</v>
@@ -2004,12 +2231,15 @@
         <v>153</v>
       </c>
       <c r="E67" s="1">
-        <v>5100.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>5100</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45997.0</v>
+        <v>45997</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>23</v>
@@ -2021,12 +2251,15 @@
         <v>155</v>
       </c>
       <c r="E68" s="1">
-        <v>2400.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>2400</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45998.0</v>
+        <v>45998</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>26</v>
@@ -2038,12 +2271,15 @@
         <v>157</v>
       </c>
       <c r="E69" s="1">
-        <v>3900.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>3900</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45999.0</v>
+        <v>45999</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>29</v>
@@ -2055,12 +2291,15 @@
         <v>159</v>
       </c>
       <c r="E70" s="1">
-        <v>1550.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>1550</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>46000.0</v>
+        <v>46000</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>32</v>
@@ -2072,12 +2311,15 @@
         <v>161</v>
       </c>
       <c r="E71" s="1">
-        <v>6200.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>6200</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>46001.0</v>
+        <v>46001</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>35</v>
@@ -2089,12 +2331,15 @@
         <v>163</v>
       </c>
       <c r="E72" s="1">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>3300</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>46002.0</v>
+        <v>46002</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>38</v>
@@ -2106,12 +2351,15 @@
         <v>165</v>
       </c>
       <c r="E73" s="1">
-        <v>4600.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>4600</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>46003.0</v>
+        <v>46003</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>41</v>
@@ -2123,12 +2371,15 @@
         <v>167</v>
       </c>
       <c r="E74" s="1">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>2900</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>46004.0</v>
+        <v>46004</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>44</v>
@@ -2140,12 +2391,15 @@
         <v>169</v>
       </c>
       <c r="E75" s="1">
-        <v>5500.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>5500</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>46005.0</v>
+        <v>46005</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>47</v>
@@ -2157,12 +2411,15 @@
         <v>171</v>
       </c>
       <c r="E76" s="1">
-        <v>2150.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>2150</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>46006.0</v>
+        <v>46006</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>50</v>
@@ -2174,12 +2431,15 @@
         <v>173</v>
       </c>
       <c r="E77" s="1">
-        <v>4400.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>4400</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>46007.0</v>
+        <v>46007</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>53</v>
@@ -2191,12 +2451,15 @@
         <v>175</v>
       </c>
       <c r="E78" s="1">
-        <v>6700.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>6700</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>46008.0</v>
+        <v>46008</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>56</v>
@@ -2208,12 +2471,15 @@
         <v>177</v>
       </c>
       <c r="E79" s="1">
-        <v>1600.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>1600</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>46009.0</v>
+        <v>46009</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>59</v>
@@ -2225,12 +2491,15 @@
         <v>95</v>
       </c>
       <c r="E80" s="1">
-        <v>3800.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>3800</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>46010.0</v>
+        <v>46010</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>62</v>
@@ -2242,12 +2511,15 @@
         <v>180</v>
       </c>
       <c r="E81" s="1">
-        <v>8100.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>8100</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>46011.0</v>
+        <v>46011</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>5</v>
@@ -2259,12 +2531,15 @@
         <v>182</v>
       </c>
       <c r="E82" s="1">
-        <v>4900.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>4900</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>46012.0</v>
+        <v>46012</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>8</v>
@@ -2276,12 +2551,15 @@
         <v>184</v>
       </c>
       <c r="E83" s="1">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>3100</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>46013.0</v>
+        <v>46013</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>11</v>
@@ -2293,12 +2571,15 @@
         <v>186</v>
       </c>
       <c r="E84" s="1">
-        <v>4200.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>4200</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>46014.0</v>
+        <v>46014</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>14</v>
@@ -2310,12 +2591,15 @@
         <v>188</v>
       </c>
       <c r="E85" s="1">
-        <v>8900.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>8900</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>46015.0</v>
+        <v>46015</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>17</v>
@@ -2327,12 +2611,15 @@
         <v>190</v>
       </c>
       <c r="E86" s="1">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>2000</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>46016.0</v>
+        <v>46016</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>20</v>
@@ -2344,12 +2631,15 @@
         <v>192</v>
       </c>
       <c r="E87" s="1">
-        <v>5400.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>5400</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>46017.0</v>
+        <v>46017</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>23</v>
@@ -2361,12 +2651,15 @@
         <v>194</v>
       </c>
       <c r="E88" s="1">
-        <v>2700.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>2700</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>46018.0</v>
+        <v>46018</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>26</v>
@@ -2378,12 +2671,15 @@
         <v>196</v>
       </c>
       <c r="E89" s="1">
-        <v>4100.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>4100</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>46019.0</v>
+        <v>46019</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>29</v>
@@ -2395,12 +2691,15 @@
         <v>13</v>
       </c>
       <c r="E90" s="1">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1850</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>46020.0</v>
+        <v>46020</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>32</v>
@@ -2412,12 +2711,15 @@
         <v>117</v>
       </c>
       <c r="E91" s="1">
-        <v>6500.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>6500</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>46021.0</v>
+        <v>46021</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>35</v>
@@ -2429,12 +2731,15 @@
         <v>37</v>
       </c>
       <c r="E92" s="1">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>3600</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>46022.0</v>
+        <v>46022</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>5</v>
@@ -2446,10 +2751,13 @@
         <v>16</v>
       </c>
       <c r="E93" s="1">
-        <v>9500.0</v>
+        <v>9500</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>